--- a/Website/Embeds/exoplanet_data.xlsx
+++ b/Website/Embeds/exoplanet_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>Planet Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Orbital period /years</t>
   </si>
   <si>
-    <t>task 5 time increment</t>
-  </si>
-  <si>
     <t>Planet type</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
 </t>
   </si>
   <si>
+    <t>Terrestrial</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kepler-106 c
 </t>
   </si>
@@ -193,13 +193,55 @@
   </si>
   <si>
     <t>HR 5183 b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star </t>
+  </si>
+  <si>
+    <t>Luminosity</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>47 Ursae Majoris</t>
+  </si>
+  <si>
+    <t>55 Cancri</t>
+  </si>
+  <si>
+    <t>61 Virginis</t>
+  </si>
+  <si>
+    <t>CoRoT-7</t>
+  </si>
+  <si>
+    <t>DMPP-1</t>
+  </si>
+  <si>
+    <t>EPIC 249893012</t>
+  </si>
+  <si>
+    <t>GJ 1061</t>
+  </si>
+  <si>
+    <t>GJ 163</t>
+  </si>
+  <si>
+    <t>Kepler-106</t>
+  </si>
+  <si>
+    <t>TOI-700</t>
+  </si>
+  <si>
+    <t>HR 5183</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -217,6 +259,16 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF2B2B2B"/>
       <name val="Helvetica"/>
     </font>
@@ -248,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -261,6 +313,13 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -514,13 +573,10 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>804.30428</v>
@@ -532,24 +588,24 @@
         <v>0.03</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>13.226521</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>3.0</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>171.66969</v>
@@ -561,25 +617,25 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>14.235323</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
         <v>6.6</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>521.3672</v>
@@ -591,25 +647,25 @@
         <v>0.16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>13.4507</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <v>38.4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>9.310125386</v>
@@ -621,24 +677,24 @@
         <v>0.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>13.899055</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>0.04027397</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>54.48923092</v>
@@ -650,24 +706,24 @@
         <v>0.03</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>8.5187759</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
         <v>0.1216438</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>43.4681751</v>
@@ -679,24 +735,24 @@
         <v>0.13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>13.002342</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
         <v>15.3</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>7.99</v>
@@ -708,25 +764,25 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>1.875</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <v>0.001917808</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>44.8248632</v>
@@ -738,24 +794,24 @@
         <v>0.08</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <v>7.58843593</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>0.712054795</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>5.1</v>
@@ -767,25 +823,25 @@
         <v>0.12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>2.11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
         <v>0.01150685</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>18.2</v>
@@ -797,25 +853,25 @@
         <v>0.14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>4.46114845</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1">
         <v>0.10411</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>22.9</v>
@@ -827,25 +883,25 @@
         <v>0.35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>5.11126556</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
         <v>0.3369863</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>4.07661</v>
@@ -857,25 +913,25 @@
         <v>0.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>1.681</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <v>0.002465753</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>8.4</v>
@@ -887,25 +943,25 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>2.83585567</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
         <v>0.01013699</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>23</v>
+      <c r="I15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>24.27</v>
@@ -917,25 +973,25 @@
         <v>0.083</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>5.29060821</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
         <v>0.050958904</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>9.6</v>
@@ -947,25 +1003,25 @@
         <v>0.057</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1">
         <v>3.06003399</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
         <v>0.01808219</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>3.35</v>
@@ -977,25 +1033,25 @@
         <v>0.07</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
         <v>1.65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1">
         <v>0.007945205</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>4.13</v>
@@ -1007,25 +1063,25 @@
         <v>0.07</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
         <v>1.86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
         <v>0.01506849</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>20</v>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>8.75</v>
@@ -1037,25 +1093,25 @@
         <v>0.06</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1">
         <v>1.95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <v>0.009863014</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>14.67</v>
@@ -1067,25 +1123,25 @@
         <v>0.07</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
         <v>3.66531544</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1">
         <v>0.042739726</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
+      <c r="I21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>10.18</v>
@@ -1097,25 +1153,25 @@
         <v>0.15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
         <v>3.94553833</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
         <v>0.097808219</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>23</v>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>1.37</v>
@@ -1127,25 +1183,25 @@
         <v>0.31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
         <v>1.1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1">
         <v>0.008767123</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>1.74</v>
@@ -1157,25 +1213,25 @@
         <v>0.29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1">
         <v>1.18</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
         <v>0.01835616</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
+      <c r="I24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>1.64</v>
@@ -1187,24 +1243,24 @@
         <v>0.53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
         <v>1.16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
         <v>0.0356164</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
+      <c r="I25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>10.6</v>
@@ -1216,21 +1272,25 @@
         <v>0.07</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
         <v>3.2505856</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
         <v>0.02356164</v>
       </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>6.8</v>
@@ -1242,21 +1302,25 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
         <v>2.4995882</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1">
         <v>0.070136986</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>29.4</v>
@@ -1268,21 +1332,25 @@
         <v>0.37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
         <v>5.91830749</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1">
         <v>1.7</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>5.3</v>
@@ -1294,17 +1362,21 @@
         <v>0.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
         <v>0.82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
         <v>0.0169863</v>
       </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -1320,17 +1392,21 @@
         <v>0.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
         <v>2.4995882</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1">
         <v>0.037260274</v>
       </c>
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -1346,17 +1422,21 @@
         <v>0.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
         <v>0.95</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
         <v>0.0657534</v>
       </c>
+      <c r="I31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -1372,17 +1452,21 @@
         <v>0.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1">
         <v>2.55563278</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1">
         <v>0.12</v>
       </c>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -1398,16 +1482,19 @@
         <v>0.08</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
         <v>0.914</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1">
         <v>0.0273973</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -1424,17 +1511,21 @@
         <v>0.07</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1">
         <v>2.60046844</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1">
         <v>0.044109589</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -1450,17 +1541,21 @@
         <v>0.04</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
         <v>1.073</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1">
         <v>0.10246575</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -1476,17 +1571,21 @@
         <v>0.06</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1">
         <v>0.953</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1">
         <v>0.076164384</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -1502,16 +1601,127 @@
         <v>0.84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
         <v>13.11443</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1">
         <v>74.0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.8222</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.5468</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.00164</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.0233</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
